--- a/Data Mix/ResultatExcel/Bretagne.xlsx
+++ b/Data Mix/ResultatExcel/Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>5055739</v>
       </c>
       <c r="D2" t="n">
+        <v>475245</v>
+      </c>
+      <c r="E2" t="n">
         <v>94521</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>235349</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7645</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>112716</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>25014</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>9693951</v>
       </c>
       <c r="D3" t="n">
+        <v>940230</v>
+      </c>
+      <c r="E3" t="n">
         <v>180814</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>480423</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>22080</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>207014</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>49899</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>14607459</v>
       </c>
       <c r="D4" t="n">
+        <v>1421930</v>
+      </c>
+      <c r="E4" t="n">
         <v>276038</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>720037</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>42529</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>306654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>76672</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>18638050</v>
       </c>
       <c r="D5" t="n">
+        <v>1895441</v>
+      </c>
+      <c r="E5" t="n">
         <v>279716</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1053392</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>75060</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>389142</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>98131</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>22000359</v>
       </c>
       <c r="D6" t="n">
+        <v>2263636</v>
+      </c>
+      <c r="E6" t="n">
         <v>283294</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1281622</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>110811</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>461369</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>126540</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>24926069</v>
       </c>
       <c r="D7" t="n">
+        <v>2613980</v>
+      </c>
+      <c r="E7" t="n">
         <v>285358</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1483188</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>146728</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>544885</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>153821</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>27954872</v>
       </c>
       <c r="D8" t="n">
+        <v>2942192</v>
+      </c>
+      <c r="E8" t="n">
         <v>287311</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1657282</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>191194</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>613315</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>193090</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>30820745</v>
       </c>
       <c r="D9" t="n">
+        <v>3227965</v>
+      </c>
+      <c r="E9" t="n">
         <v>288470</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1777027</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>232237</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>692345</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>237886</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>33755871</v>
       </c>
       <c r="D10" t="n">
+        <v>3502958</v>
+      </c>
+      <c r="E10" t="n">
         <v>289935</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1911427</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>261109</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>768020</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>272467</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>37052906</v>
       </c>
       <c r="D11" t="n">
+        <v>3918329</v>
+      </c>
+      <c r="E11" t="n">
         <v>298032</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>2182846</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>281373</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>846918</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>309160</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>41142162</v>
       </c>
       <c r="D12" t="n">
+        <v>4426912</v>
+      </c>
+      <c r="E12" t="n">
         <v>401250</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>2465478</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>291624</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>923274</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>345286</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>45790140</v>
       </c>
       <c r="D13" t="n">
+        <v>5022912</v>
+      </c>
+      <c r="E13" t="n">
         <v>515187</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2802751</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>301576</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>1020158</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>383240</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>311438323</v>
       </c>
       <c r="D14" t="n">
+        <v>32651730</v>
+      </c>
+      <c r="E14" t="n">
         <v>3479926</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>18050822</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1963966</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>6885810</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>2271206</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>50579810</v>
       </c>
       <c r="D15" t="n">
+        <v>5720303</v>
+      </c>
+      <c r="E15" t="n">
         <v>640302</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>3203070</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>311652</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>1135950</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>429329</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>54909143</v>
       </c>
       <c r="D16" t="n">
+        <v>6423180</v>
+      </c>
+      <c r="E16" t="n">
         <v>748957</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>3640889</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>328121</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>1234094</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>471119</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>59087484</v>
       </c>
       <c r="D17" t="n">
+        <v>6960732</v>
+      </c>
+      <c r="E17" t="n">
         <v>870970</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>3861537</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>358647</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>1347729</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>521849</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>62575359</v>
       </c>
       <c r="D18" t="n">
+        <v>7320974</v>
+      </c>
+      <c r="E18" t="n">
         <v>873239</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>4067676</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>394119</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1424838</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>561102</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>65706093</v>
       </c>
       <c r="D19" t="n">
+        <v>7717381</v>
+      </c>
+      <c r="E19" t="n">
         <v>876548</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>4275707</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>436886</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1522441</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>605799</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>68557289</v>
       </c>
       <c r="D20" t="n">
+        <v>8049835</v>
+      </c>
+      <c r="E20" t="n">
         <v>878761</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>4429899</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>486144</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>1610012</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>645019</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>71554200</v>
       </c>
       <c r="D21" t="n">
+        <v>8370534</v>
+      </c>
+      <c r="E21" t="n">
         <v>881733</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>4561389</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>532647</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1704052</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>690713</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>74423903</v>
       </c>
       <c r="D22" t="n">
+        <v>8707123</v>
+      </c>
+      <c r="E22" t="n">
         <v>882666</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>4713756</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>571659</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>1798880</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>740162</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>77371533</v>
       </c>
       <c r="D23" t="n">
+        <v>8972971</v>
+      </c>
+      <c r="E23" t="n">
         <v>884783</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>4810233</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>611198</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>1884552</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>782205</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>80665314</v>
       </c>
       <c r="D24" t="n">
+        <v>9388321</v>
+      </c>
+      <c r="E24" t="n">
         <v>899151</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>5044800</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>634879</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>1976842</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>832649</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>84470776</v>
       </c>
       <c r="D25" t="n">
+        <v>9930631</v>
+      </c>
+      <c r="E25" t="n">
         <v>1018537</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>5295272</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>647516</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>2081317</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>887989</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>89115303</v>
       </c>
       <c r="D26" t="n">
+        <v>10561199</v>
+      </c>
+      <c r="E26" t="n">
         <v>1176298</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>5597488</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>656400</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>2189625</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>941388</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>1461892853</v>
       </c>
       <c r="D27" t="n">
+        <v>163426644</v>
+      </c>
+      <c r="E27" t="n">
         <v>17591797</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>89603360</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>9897800</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>33681952</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>12651735</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>93959383</v>
       </c>
       <c r="D28" t="n">
+        <v>11268546</v>
+      </c>
+      <c r="E28" t="n">
         <v>1336896</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>5965011</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>667964</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>2305507</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>993168</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>98572022</v>
       </c>
       <c r="D29" t="n">
+        <v>11914902</v>
+      </c>
+      <c r="E29" t="n">
         <v>1489424</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>6289479</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>687277</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>2412621</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>1036101</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>102951362</v>
       </c>
       <c r="D30" t="n">
+        <v>12597041</v>
+      </c>
+      <c r="E30" t="n">
         <v>1653173</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>6618329</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>715439</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>2519764</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>1090336</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>106321704</v>
       </c>
       <c r="D31" t="n">
+        <v>12997298</v>
+      </c>
+      <c r="E31" t="n">
         <v>1657816</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>6826423</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>759026</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>2612490</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>1141543</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>109445453</v>
       </c>
       <c r="D32" t="n">
+        <v>13413482</v>
+      </c>
+      <c r="E32" t="n">
         <v>1658660</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>7051999</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>802157</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>2703098</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>1197568</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>112342651</v>
       </c>
       <c r="D33" t="n">
+        <v>13807123</v>
+      </c>
+      <c r="E33" t="n">
         <v>1662981</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>7246515</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>856632</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>2793816</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>1247179</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>115313159</v>
       </c>
       <c r="D34" t="n">
+        <v>14173708</v>
+      </c>
+      <c r="E34" t="n">
         <v>1666364</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>7425794</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>902575</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>2877242</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>1301733</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>118185223</v>
       </c>
       <c r="D35" t="n">
+        <v>14535024</v>
+      </c>
+      <c r="E35" t="n">
         <v>1667260</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>7592215</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>942705</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>2974293</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1358551</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>121135228</v>
       </c>
       <c r="D36" t="n">
+        <v>14908961</v>
+      </c>
+      <c r="E36" t="n">
         <v>1668754</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>7788227</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>983004</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>3059016</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>1409960</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>124587890</v>
       </c>
       <c r="D37" t="n">
+        <v>15296773</v>
+      </c>
+      <c r="E37" t="n">
         <v>1670859</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>8009708</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>1007144</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>3150435</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>1458627</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>128211488</v>
       </c>
       <c r="D38" t="n">
+        <v>15974861</v>
+      </c>
+      <c r="E38" t="n">
         <v>1802339</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>8400412</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1020710</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>3239984</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>1511416</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>132229032</v>
       </c>
       <c r="D39" t="n">
+        <v>16832194</v>
+      </c>
+      <c r="E39" t="n">
         <v>2003074</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>8901279</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>1031068</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>3332533</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>1564240</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>4287040301</v>
       </c>
       <c r="D40" t="n">
+        <v>494573201</v>
+      </c>
+      <c r="E40" t="n">
         <v>55121194</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>267322111</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>30171301</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>101344703</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>40613892</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>137006817</v>
       </c>
       <c r="D41" t="n">
+        <v>17674765</v>
+      </c>
+      <c r="E41" t="n">
         <v>2220753</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>9356572</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>1041767</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>3439544</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>1616129</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>141473451</v>
       </c>
       <c r="D42" t="n">
+        <v>18462695</v>
+      </c>
+      <c r="E42" t="n">
         <v>2433950</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>9757307</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1061084</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>3546972</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>1663382</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>146068768</v>
       </c>
       <c r="D43" t="n">
+        <v>19261490</v>
+      </c>
+      <c r="E43" t="n">
         <v>2659957</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>10138111</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1093917</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>3655662</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>1713843</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>149905449</v>
       </c>
       <c r="D44" t="n">
+        <v>19683289</v>
+      </c>
+      <c r="E44" t="n">
         <v>2664327</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>10372555</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>1133964</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>3751982</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>1760461</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>153030366</v>
       </c>
       <c r="D45" t="n">
+        <v>20054864</v>
+      </c>
+      <c r="E45" t="n">
         <v>2666266</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>10543739</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>1180761</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>3849217</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>1814881</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>155946775</v>
       </c>
       <c r="D46" t="n">
+        <v>20357835</v>
+      </c>
+      <c r="E46" t="n">
         <v>2669880</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>10670423</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>1218106</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>3941257</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>1858169</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>158867816</v>
       </c>
       <c r="D47" t="n">
+        <v>20696139</v>
+      </c>
+      <c r="E47" t="n">
         <v>2671186</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>10800306</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>1267605</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>4039465</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>1917577</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>161746987</v>
       </c>
       <c r="D48" t="n">
+        <v>21079389</v>
+      </c>
+      <c r="E48" t="n">
         <v>2672240</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>10978148</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1317628</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>4136563</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>1974810</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>164676956</v>
       </c>
       <c r="D49" t="n">
+        <v>21412470</v>
+      </c>
+      <c r="E49" t="n">
         <v>2675521</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>11129340</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>1352924</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>4225089</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>2029596</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>168206570</v>
       </c>
       <c r="D50" t="n">
+        <v>21800649</v>
+      </c>
+      <c r="E50" t="n">
         <v>2685235</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>11319316</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1396044</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>4317893</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>2082161</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>172399792</v>
       </c>
       <c r="D51" t="n">
+        <v>22475333</v>
+      </c>
+      <c r="E51" t="n">
         <v>2873575</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>11648066</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>1411833</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>4407885</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>2133974</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>177172775</v>
       </c>
       <c r="D52" t="n">
+        <v>23132082</v>
+      </c>
+      <c r="E52" t="n">
         <v>3157261</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>11860522</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>1424329</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>4502931</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>2187039</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>10460583124</v>
       </c>
       <c r="D53" t="n">
+        <v>1235237402</v>
+      </c>
+      <c r="E53" t="n">
         <v>142292539</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>663218627</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>75242564</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>250503866</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>103979806</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>182621395</v>
       </c>
       <c r="D54" t="n">
+        <v>23880680</v>
+      </c>
+      <c r="E54" t="n">
         <v>3486854</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>12110687</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>1440142</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>4599513</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>2243484</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>186914114</v>
       </c>
       <c r="D55" t="n">
+        <v>24676477</v>
+      </c>
+      <c r="E55" t="n">
         <v>3760053</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>12466372</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1458695</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>4695282</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>2296075</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>191018423</v>
       </c>
       <c r="D56" t="n">
+        <v>25521067</v>
+      </c>
+      <c r="E56" t="n">
         <v>4062688</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>12810373</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>1489710</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>4803756</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>2354540</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>194385473</v>
       </c>
       <c r="D57" t="n">
+        <v>25906788</v>
+      </c>
+      <c r="E57" t="n">
         <v>4066047</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>12990987</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1539994</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4898540</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>2411220</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>197500056</v>
       </c>
       <c r="D58" t="n">
+        <v>26349965</v>
+      </c>
+      <c r="E58" t="n">
         <v>4073782</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>13209056</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>1592453</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>5001668</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>2473006</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>200370433</v>
       </c>
       <c r="D59" t="n">
+        <v>26754922</v>
+      </c>
+      <c r="E59" t="n">
         <v>4097957</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>13381310</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1649871</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>5090791</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>2534993</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>203326626</v>
       </c>
       <c r="D60" t="n">
+        <v>27188246</v>
+      </c>
+      <c r="E60" t="n">
         <v>4101330</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>13596965</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>1700608</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>5185740</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>2603603</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>206240243</v>
       </c>
       <c r="D61" t="n">
+        <v>27576039</v>
+      </c>
+      <c r="E61" t="n">
         <v>4103503</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>13771561</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>1749464</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>5279787</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>2671724</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>209300106</v>
       </c>
       <c r="D62" t="n">
+        <v>28006839</v>
+      </c>
+      <c r="E62" t="n">
         <v>4107267</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>14013231</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>1783953</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>5371873</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>2730515</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>212676205</v>
       </c>
       <c r="D63" t="n">
+        <v>28412516</v>
+      </c>
+      <c r="E63" t="n">
         <v>4112727</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>14243572</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>1809619</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>5462750</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>2783848</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>216885109</v>
       </c>
       <c r="D64" t="n">
+        <v>29080048</v>
+      </c>
+      <c r="E64" t="n">
         <v>4338233</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>14518200</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>1827486</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>5554058</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>2842071</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>221751600</v>
       </c>
       <c r="D65" t="n">
+        <v>30040161</v>
+      </c>
+      <c r="E65" t="n">
         <v>4680359</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>14951719</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>1838067</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>5661724</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>2908292</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>23344156031</v>
       </c>
       <c r="D66" t="n">
+        <v>2793868552</v>
+      </c>
+      <c r="E66" t="n">
         <v>333575878</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>1488501287</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>170365190</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>562613214</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>238812983</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>226497146</v>
       </c>
       <c r="D67" t="n">
+        <v>31117839</v>
+      </c>
+      <c r="E67" t="n">
         <v>5022083</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>15492319</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>1846231</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>5786887</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>2970319</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>231341848</v>
       </c>
       <c r="D68" t="n">
+        <v>32007881</v>
+      </c>
+      <c r="E68" t="n">
         <v>5364184</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>15862077</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>1873844</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>5879705</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>3028071</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>236167223</v>
       </c>
       <c r="D69" t="n">
+        <v>32980859</v>
+      </c>
+      <c r="E69" t="n">
         <v>5731990</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>16287456</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>1903479</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>5966328</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>3091606</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>239683185</v>
       </c>
       <c r="D70" t="n">
+        <v>33459416</v>
+      </c>
+      <c r="E70" t="n">
         <v>5735848</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>16559979</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>1948763</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>6062821</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>3152005</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>242748747</v>
       </c>
       <c r="D71" t="n">
+        <v>33883870</v>
+      </c>
+      <c r="E71" t="n">
         <v>5738795</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>16755000</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>2009939</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>6159385</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>3220751</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>245638874</v>
       </c>
       <c r="D72" t="n">
+        <v>34261465</v>
+      </c>
+      <c r="E72" t="n">
         <v>5743198</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>16922000</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>2065048</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>6246646</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>3284573</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>248619736</v>
       </c>
       <c r="D73" t="n">
+        <v>34651477</v>
+      </c>
+      <c r="E73" t="n">
         <v>5749848</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
       <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>17080284</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>2127022</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>6339113</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>3355210</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>251553160</v>
       </c>
       <c r="D74" t="n">
+        <v>35002235</v>
+      </c>
+      <c r="E74" t="n">
         <v>5753809</v>
       </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>17205326</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>2177558</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>6438776</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>3426766</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>254470341</v>
       </c>
       <c r="D75" t="n">
+        <v>35451121</v>
+      </c>
+      <c r="E75" t="n">
         <v>5756564</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>17443791</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>2224607</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>6535654</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>3490505</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>257960288</v>
       </c>
       <c r="D76" t="n">
+        <v>35941372</v>
+      </c>
+      <c r="E76" t="n">
         <v>5766541</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>17745070</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>2261224</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>6623373</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>3545164</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>262236618</v>
       </c>
       <c r="D77" t="n">
+        <v>36757045</v>
+      </c>
+      <c r="E77" t="n">
         <v>6031985</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>18132938</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>2284120</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>6707832</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>3600170</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>266804705</v>
       </c>
       <c r="D78" t="n">
+        <v>37689648</v>
+      </c>
+      <c r="E78" t="n">
         <v>6366699</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>18559428</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>2289123</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>6811060</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>3663338</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>49652033933</v>
       </c>
       <c r="D79" t="n">
+        <v>6000941332</v>
+      </c>
+      <c r="E79" t="n">
         <v>735913300</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>3181048242</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>365741338</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>1200784008</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>517454444</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>271922457</v>
       </c>
       <c r="D80" t="n">
+        <v>38520317</v>
+      </c>
+      <c r="E80" t="n">
         <v>6767283</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>18824929</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>2304241</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>6904969</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>3718895</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>276175273</v>
       </c>
       <c r="D81" t="n">
+        <v>39381525</v>
+      </c>
+      <c r="E81" t="n">
         <v>7120244</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>19144207</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>2333928</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>7001864</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>3781282</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>280402816</v>
       </c>
       <c r="D82" t="n">
+        <v>40462716</v>
+      </c>
+      <c r="E82" t="n">
         <v>7492363</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>19652600</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>2375909</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>7090576</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>3851268</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>284108751</v>
       </c>
       <c r="D83" t="n">
+        <v>40949128</v>
+      </c>
+      <c r="E83" t="n">
         <v>7498014</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>19926036</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>2424295</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>7181279</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>3919504</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>287376851</v>
       </c>
       <c r="D84" t="n">
+        <v>41392617</v>
+      </c>
+      <c r="E84" t="n">
         <v>7500302</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>20137634</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>2485386</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>7276510</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>3992785</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>290342646</v>
       </c>
       <c r="D85" t="n">
+        <v>41807262</v>
+      </c>
+      <c r="E85" t="n">
         <v>7502970</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
       <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>20328380</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>2546374</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>7371893</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>4057645</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>293395438</v>
       </c>
       <c r="D86" t="n">
+        <v>42261294</v>
+      </c>
+      <c r="E86" t="n">
         <v>7507211</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>20537787</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>2615528</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>7469255</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>4131513</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>296330736</v>
       </c>
       <c r="D87" t="n">
+        <v>42719225</v>
+      </c>
+      <c r="E87" t="n">
         <v>7509991</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>20757252</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>2675186</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>7571479</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>4205317</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>299287834</v>
       </c>
       <c r="D88" t="n">
+        <v>43274097</v>
+      </c>
+      <c r="E88" t="n">
         <v>7513039</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>21096182</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>2723986</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>7667275</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>4273615</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>302846001</v>
       </c>
       <c r="D89" t="n">
+        <v>43844682</v>
+      </c>
+      <c r="E89" t="n">
         <v>7516918</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>21469122</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>2753581</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>7767547</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>4337514</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>307253355</v>
       </c>
       <c r="D90" t="n">
+        <v>44764348</v>
+      </c>
+      <c r="E90" t="n">
         <v>7823351</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
       <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>21889303</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>2773379</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>7877546</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>4400769</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>312063721</v>
       </c>
       <c r="D91" t="n">
+        <v>45891127</v>
+      </c>
+      <c r="E91" t="n">
         <v>8195230</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
       <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>22437744</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>2791111</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>7995013</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>4472029</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>102805573745</v>
       </c>
       <c r="D92" t="n">
+        <v>12507151002</v>
+      </c>
+      <c r="E92" t="n">
         <v>1561773516</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>6608297660</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>762285580</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>2490743222</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>1084051024</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>316974456</v>
       </c>
       <c r="D93" t="n">
+        <v>46985192</v>
+      </c>
+      <c r="E93" t="n">
         <v>8573277</v>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>22943387</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>2808945</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>8113687</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>4545896</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>321322723</v>
       </c>
       <c r="D94" t="n">
+        <v>48248135</v>
+      </c>
+      <c r="E94" t="n">
         <v>8946654</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>23622864</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>2834526</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>8229273</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>4614818</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>325581799</v>
       </c>
       <c r="D95" t="n">
+        <v>49377780</v>
+      </c>
+      <c r="E95" t="n">
         <v>9330824</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>24137389</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>2875150</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>8346295</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>4688122</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>328620052</v>
       </c>
       <c r="D96" t="n">
+        <v>49858550</v>
+      </c>
+      <c r="E96" t="n">
         <v>9334177</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>24392642</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>2929339</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>8443387</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>4759005</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>331497963</v>
       </c>
       <c r="D97" t="n">
+        <v>50407440</v>
+      </c>
+      <c r="E97" t="n">
         <v>9337299</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
       <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>24695392</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>3001651</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>8536661</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>4836437</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>334401615</v>
       </c>
       <c r="D98" t="n">
+        <v>50849519</v>
+      </c>
+      <c r="E98" t="n">
         <v>9353735</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>24907587</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>3061713</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>8626027</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>4900457</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>337438531</v>
       </c>
       <c r="D99" t="n">
+        <v>51345843</v>
+      </c>
+      <c r="E99" t="n">
         <v>9391776</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>25122674</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>3130452</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>8723520</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>4977421</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>340388534</v>
       </c>
       <c r="D100" t="n">
+        <v>51827395</v>
+      </c>
+      <c r="E100" t="n">
         <v>9402396</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>25358584</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>3191175</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>8818238</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>5057002</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>343448849</v>
       </c>
       <c r="D101" t="n">
+        <v>52265910</v>
+      </c>
+      <c r="E101" t="n">
         <v>9420625</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>25562929</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>3239651</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>8910401</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>5132304</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>347226083</v>
       </c>
       <c r="D102" t="n">
+        <v>52925757</v>
+      </c>
+      <c r="E102" t="n">
         <v>9431537</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>26011213</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>3271291</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>9007534</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>5204182</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>351140657</v>
       </c>
       <c r="D103" t="n">
+        <v>53803043</v>
+      </c>
+      <c r="E103" t="n">
         <v>9725007</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>26395694</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>3296921</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>9112671</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>5272750</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>355948561</v>
       </c>
       <c r="D104" t="n">
+        <v>54914350</v>
+      </c>
+      <c r="E104" t="n">
         <v>10087518</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
         <v>26935858</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>3313873</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>9231853</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>5345248</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>209645137313</v>
       </c>
       <c r="D105" t="n">
+        <v>25627110918</v>
+      </c>
+      <c r="E105" t="n">
         <v>3235881857</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>13516681533</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>1561525847</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>5085585991</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>2227435690</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>361277546</v>
       </c>
       <c r="D106" t="n">
+        <v>55910509</v>
+      </c>
+      <c r="E106" t="n">
         <v>10465696</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>27343961</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>3329859</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>9354988</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>5416005</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>365819720</v>
       </c>
       <c r="D107" t="n">
+        <v>56903896</v>
+      </c>
+      <c r="E107" t="n">
         <v>10822309</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>27777746</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>3355966</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>9465696</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>5482179</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>370234538</v>
       </c>
       <c r="D108" t="n">
+        <v>57846026</v>
+      </c>
+      <c r="E108" t="n">
         <v>11185828</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
       <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>28160292</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>3365043</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>9579576</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>5555287</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>373936115</v>
       </c>
       <c r="D109" t="n">
+        <v>58419272</v>
+      </c>
+      <c r="E109" t="n">
         <v>11214627</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>28460101</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>3446642</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>9679140</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>5618762</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>377370309</v>
       </c>
       <c r="D110" t="n">
+        <v>59106247</v>
+      </c>
+      <c r="E110" t="n">
         <v>11229905</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
       <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>28888278</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>3518507</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>9778531</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>5691026</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>380376817</v>
       </c>
       <c r="D111" t="n">
+        <v>59456973</v>
+      </c>
+      <c r="E111" t="n">
         <v>11241870</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
       <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>28998253</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>3587188</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>9867877</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>5761785</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>383483224</v>
       </c>
       <c r="D112" t="n">
+        <v>59949984</v>
+      </c>
+      <c r="E112" t="n">
         <v>11246233</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>29236957</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>3664069</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>9961858</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>5840867</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>386443968</v>
       </c>
       <c r="D113" t="n">
+        <v>60406640</v>
+      </c>
+      <c r="E113" t="n">
         <v>11256373</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>29442406</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>3731722</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>10052654</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>5923485</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>389483208</v>
       </c>
       <c r="D114" t="n">
+        <v>60842044</v>
+      </c>
+      <c r="E114" t="n">
         <v>11267033</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
         <v>29642947</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>3793635</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>10141071</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>5997358</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>392915898</v>
       </c>
       <c r="D115" t="n">
+        <v>61443168</v>
+      </c>
+      <c r="E115" t="n">
         <v>11315493</v>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
       <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>29996278</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>3841691</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>10226757</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>6062949</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>397292809</v>
       </c>
       <c r="D116" t="n">
+        <v>62286932</v>
+      </c>
+      <c r="E116" t="n">
         <v>11679730</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
       <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>30276511</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>3869245</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>10329414</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>6132032</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>402224735</v>
       </c>
       <c r="D117" t="n">
+        <v>63494219</v>
+      </c>
+      <c r="E117" t="n">
         <v>12183451</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>30781997</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>3884400</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>10435081</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>6209290</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>423871133513</v>
       </c>
       <c r="D118" t="n">
+        <v>51970287746</v>
+      </c>
+      <c r="E118" t="n">
         <v>6606872262</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
       <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>27382368793</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>3166439661</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>10290044625</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>4524562405</v>
       </c>
     </row>
